--- a/audite-SEO.xlsx
+++ b/audite-SEO.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="169">
   <si>
     <t xml:space="preserve">Catégorie</t>
   </si>
@@ -40,193 +40,199 @@
     <t xml:space="preserve">Référence</t>
   </si>
   <si>
+    <t xml:space="preserve">Annexe 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annexe 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">accessibilité </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Logo illisible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">slogan du logo non perceptible, pénalisant pour les publics atteint d’handicape visuel.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le rapport de contrast de couleur minimum doit être de 4.5.1 pour du texte et 3 .1 pour un logo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rendre le slogan visible en grossissant la taille de la police.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.w3.org/WAI/WCAG21/quickref/#readable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acces-1.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pas de balise title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mettre une balise title de le head html qui s’affichera sur l’onglet de page web. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">mettre une balise ‘title’ pertinente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mettre une balise title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://developers.google.com/search/docs/fundamentals/seo-starter-guide?hl=fr </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Un lien ‘page2’ à la place de  lien ‘page contact’.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'’page2 ‘’ ; titre du lien non-pertinent pour la navigation et la compréhension.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">afficher des liens de navigation compréhensible et logique pour le visiteur.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">remplacer le lien page 2 par Contact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://developers.google.com/search/docs/fundamentals/seo-starter-guide?hl=fr#getting-started </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liens qui pointent vers la même URL.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cela se traduit par davantage de la navigation et de la répétition pour le clavier et les utilisateurs de lecteurs d'écran.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ne pas faire de liens et de texte redondent. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regrouper les liens redondants en un seul lien.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.w3.org/TR/WCAG21/#link-purpose-in-context</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(WCAG) 2.4. 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">commentaires tailles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taille de police non perceptible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rendre le contenu textuel lisible et compréhensible. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">modifier la taille des textes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acces-2 / 3 / 4 / 5 / 6 / 7.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utilisation d’images texte </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Les images-texte sont non-lisible sur un lecteur d’écran ce qui pénalise les publics atteint d’handicape visuel.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utiliser des textes et éviter les texte-images et bien les commenter dans les balises ‘alt’, s’il y en a toutefois.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">remplacer les  textes images par des texte conforme pour l’accessibilité.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.w3.org/TR/WCAG21/#non-text-content </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acce -2 / 8 / 9.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Balises alt défaillantes, inexistantes, ou mal utilisées.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Des commentaires de balise alt, sont inexistantes, dupliquées, inappropriées, pénalisantes pour l’accessibilité (et référencement).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Créer des balises alt conformes et pertinentes pour le SEO et l’accessibilité des publics handicapés.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Informer correctement les balises alt. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://developers.google.com/search/docs/fundamentals/seo-starter-guide?hl=fr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Des textes sur font peu perceptible, erreur de contraste.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Les contrastes peu perceptibles nuisent a l’expérience utilisateur a tous les utilisateurs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le rapport de contraste de couleur minimum doit être de 4.5.1 pour du texte.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">modifier la couleur de fond, modifier la couleur du texte pour ajuster le contraste.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.w3.org/TR/WCAG21/#contrast-minimum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acces-1/ 5 /7.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le formulaire de contact présente des erreur de code et d ‘étiquetage.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Les erreurs de code trouvées nuisent gravement à la fonctionnalité du formulaire et le défaut de libellé nuit au balisage d’usage utilisateur.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le codage des formulaires doivent permettre la meilleure expérience possible et être dotés de libellés balisant l’usage. .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corriger le code mettre des libellés appropriés.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.w3.org/TR/WCAG21/#headings-and-labels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(WCAG) 1.1.1  / 1.3.1  /  3.3.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Balise meta langage inactive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Si la balise n’est pas défini correctement, elle ne permet pas l’usage d’un lecteurs d'écran, indispensable pour lire le contenu de manière appropriée. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">le contenu de la page doit être de même langue que la langue identifié à l'aide de l'attribut lang </t>
+  </si>
+  <si>
+    <t xml:space="preserve">informer correctement la balise meta de langage dans le head html.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.w3.org/TR/WCAG21/#language-of-page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">attribut aria inexistants </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Les attribut aria sont essentiel pour l’accessibilité des publics avec handicape.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mettre des atributs aria.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mettre des balises aria – label sur les liens réseaux sociaux,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://developer.mozilla.org/en-US/docs/Web/Accessibility/ARIA/Attributes/aria-label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(WCAG) 1.1.1  / 1.3.1  /  2.4.6  /  4.1.2  /  2.5.3</t>
+  </si>
+  <si>
     <t xml:space="preserve">Annexe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">accessibilité </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Logo illisible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">slogan du logo non perceptible, pénalisant pour les publics atteint d’handicape visuel.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Le rapport de contrast de couleur minimum doit être de 4.5.1 pour du texte et 3 .1 pour un logo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rendre le slogan visible en grossissant la taille de la police.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.w3.org/WAI/WCAG21/quickref/#readable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acces-1.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pas de balise title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mettre une balise title de le head html qui s’affichera sur l’onglet de page web. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">mettre une balise ‘title’ pertinente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mettre une balise title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://developers.google.com/search/docs/fundamentals/seo-starter-guide?hl=fr </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Un lien ‘page2’ à la place de  lien ‘page contact’.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'’page2 ‘’ ; titre du lien non-pertinent pour la navigation et la compréhension.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">afficher des liens de navigation compréhensible et logique pour le visiteur.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">remplacer le lien page 2 par Contact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://developers.google.com/search/docs/fundamentals/seo-starter-guide?hl=fr#getting-started </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liens qui pointent vers la même URL.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cela se traduit par davantage de la navigation et de la répétition pour le clavier et les utilisateurs de lecteurs d'écran.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ne pas faire de liens et de texte redondent. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Regrouper les liens redondants en un seul lien.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.w3.org/TR/WCAG21/#link-purpose-in-context</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(WCAG) 2.4. 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">commentaires tailles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taille de police non perceptible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rendre le contenu textuel lisible et compréhensible. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">modifier la taille des textes.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acces-2 / 3 / 4 / 5 / 6 / 7.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Utilisation d’images texte </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Les images-texte sont non-lisible sur un lecteur d’écran ce qui pénalise les publics atteint d’handicape visuel.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Utiliser des textes et éviter les texte-images et bien les commenter dans les balises ‘alt’, s’il y en a toutefois.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">remplacer les  textes images par des texte conforme pour l’accessibilité.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.w3.org/TR/WCAG21/#non-text-content </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acce -2 / 8 / 9.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Balises alt défaillantes, inexistantes, ou mal utilisées.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Des commentaires de balise alt, sont inexistantes, dupliquées, inappropriées, pénalisantes pour l’accessibilité (et référencement).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Créer des balises alt conformes et pertinentes pour le SEO et l’accessibilité des publics handicapés.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Informer correctement les balises alt. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://developers.google.com/search/docs/fundamentals/seo-starter-guide?hl=fr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Des textes sur font peu perceptible, erreur de contraste.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Les contrastes peu perceptibles nuisent a l’expérience utilisateur a tous les utilisateurs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Le rapport de contraste de couleur minimum doit être de 4.5.1 pour du texte.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">modifier la couleur de fond, modifier la couleur du texte pour ajuster le contraste.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.w3.org/TR/WCAG21/#contrast-minimum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acces-1/ 5 /7.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Le formulaire de contact présente des erreur de code et d ‘étiquetage.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Les erreurs de code trouvées nuisent gravement à la fonctionnalité du formulaire et le défaut de libellé nuit au balisage d’usage utilisateur.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Le codage des formulaires doivent permettre la meilleure expérience possible et être dotés de libellés balisant l’usage. .</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Corriger le code mettre des libellés appropriés.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.w3.org/TR/WCAG21/#headings-and-labels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(WCAG) 1.1.1  / 1.3.1  /  3.3.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Balise meta langage inactive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Si la balise n’est pas défini correctement, elle ne permet pas l’usage d’un lecteurs d'écran, indispensable pour lire le contenu de manière appropriée. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">le contenu de la page doit être de même langue que la langue identifié à l'aide de l'attribut lang </t>
-  </si>
-  <si>
-    <t xml:space="preserve">informer correctement la balise meta de langage dans le head html.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.w3.org/TR/WCAG21/#language-of-page </t>
-  </si>
-  <si>
-    <t xml:space="preserve">attribut aria inexistants </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Les attribut aria sont essentiel pour l’accessibilité des publics avec handicape.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mettre des atributs aria.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mettre des balises aria – label sur les liens réseaux sociaux,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://developer.mozilla.org/en-US/docs/Web/Accessibility/ARIA/Attributes/aria-label</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(WCAG) 1.1.1  / 1.3.1  /  2.4.6  /  4.1.2  /  2.5.3</t>
   </si>
   <si>
     <t xml:space="preserve">accessibilité /perf SEO</t>
@@ -593,13 +599,13 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFDDDDDD"/>
-        <bgColor rgb="FFCCCCCC"/>
+        <bgColor rgb="FFCCFFCC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCCCCCC"/>
-        <bgColor rgb="FFDDDDDD"/>
+        <fgColor rgb="FF6B5E9B"/>
+        <bgColor rgb="FF808080"/>
       </patternFill>
     </fill>
   </fills>
@@ -662,7 +668,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -674,11 +680,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -711,7 +717,7 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFCCCCCC"/>
+      <rgbColor rgb="FFC0C0C0"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF7030A0"/>
@@ -743,7 +749,7 @@
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF6B5E9B"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
@@ -765,8 +771,8 @@
   </sheetPr>
   <dimension ref="A1:Z1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A40" activeCellId="0" sqref="A40"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.2890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -778,7 +784,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="84.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="82.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="40.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="8" style="1" width="10.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="32.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="9" style="1" width="10.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -803,7 +810,9 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3"/>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
@@ -831,7 +840,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
-      <c r="H2" s="3"/>
+      <c r="H2" s="2"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
@@ -853,25 +862,25 @@
     </row>
     <row r="3" s="6" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
@@ -921,68 +930,48 @@
       <c r="Y4" s="4"/>
       <c r="Z4" s="4"/>
     </row>
-    <row r="5" s="9" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" s="7" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
-      <c r="U5" s="7"/>
-      <c r="V5" s="7"/>
-      <c r="W5" s="7"/>
-      <c r="X5" s="7"/>
-      <c r="Y5" s="7"/>
-      <c r="Z5" s="7"/>
+        <v>19</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="7" s="6" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
@@ -1034,49 +1023,49 @@
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="11" s="6" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
@@ -1128,46 +1117,46 @@
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="15" s="6" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
@@ -1220,49 +1209,49 @@
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="19" s="6" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
@@ -1314,46 +1303,46 @@
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="23" s="6" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
@@ -1423,7 +1412,10 @@
         <v>5</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>6</v>
+        <v>70</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1434,25 +1426,26 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
     </row>
     <row r="27" s="6" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
@@ -1505,46 +1498,46 @@
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="31" s="6" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
@@ -1596,46 +1589,46 @@
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="35" s="6" customFormat="true" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
@@ -1688,25 +1681,25 @@
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1714,25 +1707,25 @@
     </row>
     <row r="39" s="6" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
@@ -1784,25 +1777,25 @@
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1811,22 +1804,22 @@
     </row>
     <row r="43" s="6" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
@@ -1879,25 +1872,25 @@
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1906,22 +1899,22 @@
     </row>
     <row r="47" s="6" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
@@ -1974,43 +1967,43 @@
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="51" s="6" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
@@ -2063,22 +2056,22 @@
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2086,22 +2079,22 @@
     </row>
     <row r="55" s="6" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
@@ -2154,41 +2147,62 @@
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="10"/>
-      <c r="B59" s="10"/>
-      <c r="C59" s="10"/>
-      <c r="D59" s="10"/>
-      <c r="E59" s="10"/>
+    <row r="59" s="10" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A59" s="9"/>
+      <c r="B59" s="9"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="9"/>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c r="L59" s="9"/>
+      <c r="M59" s="9"/>
+      <c r="N59" s="9"/>
+      <c r="O59" s="9"/>
+      <c r="P59" s="9"/>
+      <c r="Q59" s="9"/>
+      <c r="R59" s="9"/>
+      <c r="S59" s="9"/>
+      <c r="T59" s="9"/>
+      <c r="U59" s="9"/>
+      <c r="V59" s="9"/>
+      <c r="W59" s="9"/>
+      <c r="X59" s="9"/>
+      <c r="Y59" s="9"/>
+      <c r="Z59" s="9"/>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2196,61 +2210,61 @@
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B64" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="68" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/audite-SEO.xlsx
+++ b/audite-SEO.xlsx
@@ -643,7 +643,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -681,10 +681,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -771,8 +767,8 @@
   </sheetPr>
   <dimension ref="A1:Z1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B45" activeCellId="0" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.2890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2166,39 +2162,12 @@
       </c>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="59" s="10" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="9"/>
-      <c r="B59" s="9"/>
-      <c r="C59" s="9"/>
-      <c r="D59" s="9"/>
-      <c r="E59" s="9"/>
-      <c r="F59" s="9"/>
-      <c r="G59" s="9"/>
-      <c r="H59" s="9"/>
-      <c r="I59" s="9"/>
-      <c r="J59" s="9"/>
-      <c r="K59" s="9"/>
-      <c r="L59" s="9"/>
-      <c r="M59" s="9"/>
-      <c r="N59" s="9"/>
-      <c r="O59" s="9"/>
-      <c r="P59" s="9"/>
-      <c r="Q59" s="9"/>
-      <c r="R59" s="9"/>
-      <c r="S59" s="9"/>
-      <c r="T59" s="9"/>
-      <c r="U59" s="9"/>
-      <c r="V59" s="9"/>
-      <c r="W59" s="9"/>
-      <c r="X59" s="9"/>
-      <c r="Y59" s="9"/>
-      <c r="Z59" s="9"/>
-    </row>
+    <row r="59" s="9" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B60" s="11" t="s">
+      <c r="B60" s="10" t="s">
         <v>158</v>
       </c>
       <c r="C60" s="1" t="s">
@@ -2206,7 +2175,7 @@
       </c>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B61" s="11"/>
+      <c r="B61" s="10"/>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">

--- a/audite-SEO.xlsx
+++ b/audite-SEO.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="175">
   <si>
     <t xml:space="preserve">Catégorie</t>
   </si>
@@ -82,6 +82,9 @@
     <t xml:space="preserve">https://developers.google.com/search/docs/fundamentals/seo-starter-guide?hl=fr </t>
   </si>
   <si>
+    <t xml:space="preserve">On-page/audit onPage-1.png</t>
+  </si>
+  <si>
     <t xml:space="preserve">Un lien ‘page2’ à la place de  lien ‘page contact’.</t>
   </si>
   <si>
@@ -163,6 +166,9 @@
     <t xml:space="preserve">https://developers.google.com/search/docs/fundamentals/seo-starter-guide?hl=fr</t>
   </si>
   <si>
+    <t xml:space="preserve">On-page/audit onPage-7/8/9/10/16.png</t>
+  </si>
+  <si>
     <t xml:space="preserve">Des textes sur font peu perceptible, erreur de contraste.</t>
   </si>
   <si>
@@ -244,7 +250,7 @@
     <t xml:space="preserve">donne de la structure au code essentiel pour seo et accessibilité</t>
   </si>
   <si>
-    <t xml:space="preserve">mettre des balise sémantique autant que posible, h1 et h2</t>
+    <t xml:space="preserve">mettre des balise sémantique autant que possible, header, main, section, h1, h2.</t>
   </si>
   <si>
     <t xml:space="preserve">mettre des balises de base.</t>
@@ -325,6 +331,9 @@
     <t xml:space="preserve">https://validator.w3.org/</t>
   </si>
   <si>
+    <t xml:space="preserve">On-page/audit onPage-16.png</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dimensionnent incorrect des images.</t>
   </si>
   <si>
@@ -394,7 +403,10 @@
     <t xml:space="preserve">https://developers.google.com/search/docs/crawling-indexing/googlebot?hl=fr</t>
   </si>
   <si>
-    <t xml:space="preserve">paramêtre cache navigateur</t>
+    <t xml:space="preserve">Feuilles-perf-6.PNG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">paramètre cache navigateur</t>
   </si>
   <si>
     <t xml:space="preserve">pas de cache navigateur configuré pour améliorer l’expérience utilisateur,</t>
@@ -424,6 +436,9 @@
     <t xml:space="preserve">éliminer faux liens et mettre des liens vers les réseaux sociaux.</t>
   </si>
   <si>
+    <t xml:space="preserve">audit onPage-14.png</t>
+  </si>
+  <si>
     <t xml:space="preserve">balise script Google Analyque  (GA) inexistante</t>
   </si>
   <si>
@@ -494,6 +509,9 @@
   </si>
   <si>
     <t xml:space="preserve">https://developers.google.com/search/docs/crawling-indexing/sitemaps/overview?hl=fr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sitemapp.xml</t>
   </si>
   <si>
     <t xml:space="preserve">Une CSP (Content Security Policy)  risque d'attaques de script intersites (XSS)</t>
@@ -767,8 +785,8 @@
   </sheetPr>
   <dimension ref="A1:Z1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B45" activeCellId="0" sqref="B45"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F29" activeCellId="0" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.2890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -945,6 +963,9 @@
       <c r="F5" s="8" t="s">
         <v>19</v>
       </c>
+      <c r="G5" s="7" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="7" s="6" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -952,19 +973,19 @@
         <v>8</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>14</v>
@@ -1022,22 +1043,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -1046,22 +1067,22 @@
         <v>8</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
@@ -1116,22 +1137,22 @@
         <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -1140,21 +1161,23 @@
         <v>8</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G15" s="4"/>
+        <v>47</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
@@ -1208,22 +1231,22 @@
         <v>8</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -1232,22 +1255,22 @@
         <v>8</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
@@ -1302,19 +1325,22 @@
         <v>8</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>63</v>
+        <v>65</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -1323,22 +1349,22 @@
         <v>8</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
@@ -1408,10 +1434,10 @@
         <v>5</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1426,22 +1452,22 @@
     </row>
     <row r="27" s="6" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
@@ -1494,46 +1520,46 @@
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="31" s="6" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
@@ -1585,48 +1611,50 @@
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="35" s="6" customFormat="true" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="G35" s="4"/>
+        <v>102</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>103</v>
+      </c>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
@@ -1677,25 +1705,25 @@
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1703,25 +1731,25 @@
     </row>
     <row r="39" s="6" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
@@ -1773,25 +1801,25 @@
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1800,24 +1828,26 @@
     </row>
     <row r="43" s="6" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="G43" s="4"/>
+        <v>126</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
@@ -1868,25 +1898,25 @@
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1895,24 +1925,26 @@
     </row>
     <row r="47" s="6" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="G47" s="4"/>
+        <v>84</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>138</v>
+      </c>
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
@@ -1963,45 +1995,50 @@
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>138</v>
+        <v>143</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="51" s="6" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="G51" s="4"/>
+        <v>148</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
       <c r="J51" s="4"/>
@@ -2052,22 +2089,25 @@
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>148</v>
+        <v>153</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2075,24 +2115,26 @@
     </row>
     <row r="55" s="6" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="G55" s="4"/>
+        <v>157</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="H55" s="4"/>
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
@@ -2143,35 +2185,38 @@
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>157</v>
+        <v>162</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="59" s="9" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2179,61 +2224,61 @@
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="68" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/audite-SEO.xlsx
+++ b/audite-SEO.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="176">
   <si>
     <t xml:space="preserve">Catégorie</t>
   </si>
@@ -275,6 +275,9 @@
   </si>
   <si>
     <t xml:space="preserve">https://developers.google.com/search/docs/fundamentals/creating-helpful-content?hl=fr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">acces-2.png</t>
   </si>
   <si>
     <t xml:space="preserve">performance</t>
@@ -785,8 +788,8 @@
   </sheetPr>
   <dimension ref="A1:Z1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F29" activeCellId="0" sqref="F29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H34" activeCellId="0" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.2890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1537,29 +1540,32 @@
       <c r="F29" s="8" t="s">
         <v>84</v>
       </c>
+      <c r="G29" s="1" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="31" s="6" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
@@ -1611,49 +1617,49 @@
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="35" s="6" customFormat="true" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
@@ -1705,25 +1711,25 @@
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1731,25 +1737,25 @@
     </row>
     <row r="39" s="6" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
@@ -1801,25 +1807,25 @@
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1828,25 +1834,25 @@
     </row>
     <row r="43" s="6" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
@@ -1898,25 +1904,25 @@
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1925,25 +1931,25 @@
     </row>
     <row r="47" s="6" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F47" s="5" t="s">
         <v>84</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
@@ -1995,22 +2001,22 @@
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G49" s="7" t="s">
         <v>20</v>
@@ -2019,22 +2025,22 @@
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="51" s="6" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G51" s="4" t="s">
         <v>20</v>
@@ -2089,22 +2095,22 @@
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>20</v>
@@ -2115,22 +2121,22 @@
     </row>
     <row r="55" s="6" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G55" s="4" t="s">
         <v>20</v>
@@ -2185,38 +2191,38 @@
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="59" s="9" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2224,61 +2230,61 @@
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B62" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>166</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="68" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
